--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608A9FE3-A3D7-4727-AB61-455519B2FECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2956C7-336D-49C7-95C7-841E6DE20B28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30180" yWindow="-90" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PC" sheetId="1" r:id="rId1"/>
     <sheet name="H5-小程序" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="APP" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">APP!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'H5-小程序'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PC!$A$1:$C$1</definedName>
   </definedNames>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +216,49 @@
   </si>
   <si>
     <t>门店消费通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销</t>
+  </si>
+  <si>
+    <t>营销-积分兑券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录app-&gt;点击营销
+2.点击积分兑券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销-积分兑券-使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录app-&gt;点击营销
+2.点击积分兑券-&gt;点击使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.登录app-&gt;点击营销
+2.点击积分兑券-&gt;点击使用说明-&gt;再次点击使用说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信-扫码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开微信-&gt;扫描二维码
+2.点击兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销-积分兑券-使用说明-关闭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -779,10 +823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,6 +912,17 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -883,12 +938,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{7334D465-7AA6-42C1-9800-2C6D597F50A0}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
